--- a/results/MLP_tree/hidden_size_256/s_MLP_tree_data_insilico_seed_732_2024-05-30_PH_60/output.xlsx
+++ b/results/MLP_tree/hidden_size_256/s_MLP_tree_data_insilico_seed_732_2024-05-30_PH_60/output.xlsx
@@ -511,19 +511,19 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0.01199242</t>
+          <t>0.018839281</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.07771806</t>
+          <t>0.08302241</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -571,12 +571,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0.08759277</t>
+          <t>0.08813597</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.21861392</t>
+          <t>0.21863346</t>
         </is>
       </c>
       <c r="D5" t="n">
